--- a/output/inference_results/test_sheets/batch_001/test_sheet (11).xlsx
+++ b/output/inference_results/test_sheets/batch_001/test_sheet (11).xlsx
@@ -1,166 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code Workspace\Pycharm_Workspace\MedicalOCR\output\inference_results\test_sheets\batch_001\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="950" yWindow="0" windowWidth="10100" windowHeight="5510"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="化验单" sheetId="1" r:id="rId1"/>
+    <sheet name="化验单" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
-  <si>
-    <t>项目名称</t>
-  </si>
-  <si>
-    <t>项目代码</t>
-  </si>
-  <si>
-    <t>结果</t>
-  </si>
-  <si>
-    <t>提示</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>参考值</t>
-  </si>
-  <si>
-    <t>乙型肝炎DNA</t>
-  </si>
-  <si>
-    <t>HBV-DNA</t>
-  </si>
-  <si>
-    <t>IU/mL</t>
-  </si>
-  <si>
-    <t>乙型肝炎表面抗原定量</t>
-  </si>
-  <si>
-    <t>HBsAg</t>
-  </si>
-  <si>
-    <t>129.81</t>
-  </si>
-  <si>
-    <t>ng/mL</t>
-  </si>
-  <si>
-    <t>0.00-0.20</t>
-  </si>
-  <si>
-    <t>乙型肝炎表面抗体定量</t>
-  </si>
-  <si>
-    <t>HBsAb</t>
-  </si>
-  <si>
-    <t>110.80</t>
-  </si>
-  <si>
-    <t>2.00-10.00</t>
-  </si>
-  <si>
-    <t>乙型肝炎e抗原定量</t>
-  </si>
-  <si>
-    <t>HBeAg</t>
-  </si>
-  <si>
-    <t>0.043</t>
-  </si>
-  <si>
-    <t>乙型肝炎e抗体定量</t>
-  </si>
-  <si>
-    <t>HBeAb</t>
-  </si>
-  <si>
-    <t>2.836</t>
-  </si>
-  <si>
-    <t>PEIU/mL</t>
-  </si>
-  <si>
-    <t>&lt;0.200</t>
-  </si>
-  <si>
-    <t>乙型肝炎核心抗体定量</t>
-  </si>
-  <si>
-    <t>4.193</t>
-  </si>
-  <si>
-    <t>&lt;0.900</t>
-  </si>
-  <si>
-    <t>HBcAb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.28×10^4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IU/L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PEIU/mL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1.00×10^2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;0.500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -168,44 +42,85 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -493,153 +408,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>项目代码</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>结果</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>提示</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>单位</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>参考值</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>乙型肝炎DNA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HBV-DNA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3.28×104</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>IU/mL</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.00×102</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>乙型肝炎表面抗原定量</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HBsAg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>129.81</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ng/mL</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.00-0.20</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>乙型肝炎表面抗体定量</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HBsAb</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>110.80</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>TU/L</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.00-10.00</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>乙型肝炎e抗原定量</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HBeAg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.043</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PELU/mL</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>&lt;0,500</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>乙型肝炎e抗体定量</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HBeAb</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2.836</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>PEIU/mL</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>&lt;0.200</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>乙型肝炎核心抗体定量</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HBcab</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4.193</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>PEIU/mL</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>&lt;0.900</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/output/inference_results/test_sheets/batch_001/test_sheet (11).xlsx
+++ b/output/inference_results/test_sheets/batch_001/test_sheet (11).xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.28×104</t>
+          <t>3.28×10^4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -477,7 +477,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.00×102</t>
+          <t>1.00×10^2</t>
         </is>
       </c>
     </row>
@@ -522,13 +522,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>110.80</t>
+          <t>110.8</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TU/L</t>
+          <t>U/L</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;0,500</t>
+          <t>&lt;0.500</t>
         </is>
       </c>
     </row>
